--- a/medicine/Enfance/Les_petits_livres_d'or/Les_petits_livres_d'or.xlsx
+++ b/medicine/Enfance/Les_petits_livres_d'or/Les_petits_livres_d'or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_petits_livres_d%27or</t>
+          <t>Les_petits_livres_d'or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection de livres pour enfants Un petit livre d'or est une collection populaire française des années 1950[1], éditée à partir de 1949 par les Éditions Cocorico, qui prennent le nom d'édition des Deux coqs d'or[2] à compter du 21 juin 1957.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection de livres pour enfants Un petit livre d'or est une collection populaire française des années 1950, éditée à partir de 1949 par les Éditions Cocorico, qui prennent le nom d'édition des Deux coqs d'or à compter du 21 juin 1957.
 Les petits livres d'or est une déclinaison française de la célèbre collection américaine Little Golden Books créée en 1942 par le Français Georges Duplaix.
 À partir de 1959, certains titres des premières années sont republiés, avec un nouveau numéro et une pagination réduite. Dès 1954, certains albums de la collection sont repris, avec une pagination réduite et une couverture souple, dans la collection Un petit livre d'argent.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_petits_livres_d%27or</t>
+          <t>Les_petits_livres_d'or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Genèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant la quatrième République française, le baby boom qui suit la Seconde Guerre mondiale donne lieu à un véritable boum de littérature jeunesse. La croissance de publication d'albums et bandes dessinées pour les jeunes obligea le gouvernement Français a introduire la Loi du 16 juillet 1949 dans le but d'encadrer toutes nouvelles parutions d'ouvrages vers ce public. Le crime de la démoralisation de la jeunesse fut introduit dans cette loi afin de restreindre la liberté d'expression, l'enfermant entre la censure et l'auto-censure, plus particulièrement de 1950 à 1974[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la quatrième République française, le baby boom qui suit la Seconde Guerre mondiale donne lieu à un véritable boum de littérature jeunesse. La croissance de publication d'albums et bandes dessinées pour les jeunes obligea le gouvernement Français a introduire la Loi du 16 juillet 1949 dans le but d'encadrer toutes nouvelles parutions d'ouvrages vers ce public. Le crime de la démoralisation de la jeunesse fut introduit dans cette loi afin de restreindre la liberté d'expression, l'enfermant entre la censure et l'auto-censure, plus particulièrement de 1950 à 1974.
 En parallèle, de l'autre côté de l'Océan Atlantique, un système de propagande culturelle contre le péril communiste est mis en place par le gouvernement Américain. C'est dans ce paysage socioculturel particulier que va prendre forme la déclinaison française de la collection pour enfants Little Golden Books, projet éditorial de Georges Duplaix, un Français émigré aux États-Unis au début des années 1940 qui va permettre à ce succès fulgurant de se propager en France.
 La maison des Éditions Cocorico, composée des proches de la famille Flammarion, publie sous la direction de Georges Duplaix, une centaine d'albums entre 1949 et 1955 qui, de par leur nature américaine, vont susciter une certaine réserve parmi les critiques établis à l'époque. Cependant, Les Petits Livres d'Or s'installent brillamment dans le marché éditorial jeunesse grâce à la qualité graphique et matérielle des ouvrages.
-Dans son œuvre Les petits livres d'or : Des albums pour enfants dans la France de la guerre froide (Iconotext, 2016), Cécile Boulaire, professeur à l'université François-Rabelais de Tours spécialisée en littérature jeunesse, met l'accent sur la « manière dont ces livres furent traduits, financés, distribués et reçus »[4], étant donné les relations ambiguës entre Duplaix et la CIA[5].
+Dans son œuvre Les petits livres d'or : Des albums pour enfants dans la France de la guerre froide (Iconotext, 2016), Cécile Boulaire, professeur à l'université François-Rabelais de Tours spécialisée en littérature jeunesse, met l'accent sur la « manière dont ces livres furent traduits, financés, distribués et reçus », étant donné les relations ambiguës entre Duplaix et la CIA.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_petits_livres_d%27or</t>
+          <t>Les_petits_livres_d'or</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Liste des titres parus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des titres de la collection "Un petit livre d'argent" (Équivalent économique avec couverture souple des Petits Livres d'Or).
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_petits_livres_d%27or</t>
+          <t>Les_petits_livres_d'or</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Éditions Cocorico</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison des Éditions Cocorico est un éditeur de livres pour enfants fondé en 1949 par Georges Duplaix et Frédéric Richshöffer, puis remplacé dans les années 1960 par la maison d’édition Deux coqs d'or. Elles ont intégré le groupe Hachette en 1991.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_petits_livres_d%27or</t>
+          <t>Les_petits_livres_d'or</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>L'engagement de la littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En citant Benoît Denis (qui définit la fin de la Deuxième Guerre mondiale comme un moment dogmatique) : « toute œuvre littéraire est à quelques degrés engagée, au sens où elle propose une certaine vision du monde et qu'elle donne forme et sens au réel » [7], surtout lorsqu'on parle d'un produit de masse vendu au coin de rue et qui trouve sa place dans chaque foyer entre 1949 et 1965. Cette situation va transformer l'album jeunesse en un subtil terrain d'affrontement culturel pour la guerre froide.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En citant Benoît Denis (qui définit la fin de la Deuxième Guerre mondiale comme un moment dogmatique) : « toute œuvre littéraire est à quelques degrés engagée, au sens où elle propose une certaine vision du monde et qu'elle donne forme et sens au réel » , surtout lorsqu'on parle d'un produit de masse vendu au coin de rue et qui trouve sa place dans chaque foyer entre 1949 et 1965. Cette situation va transformer l'album jeunesse en un subtil terrain d'affrontement culturel pour la guerre froide.
 La collection Les petits livres d'or devient une célébration continue de la réussite individuelle dans un monde en harmonie qui repousse les horreurs de la guerre avec une concentration sur l'égo du personnage, qui arrête d'être le représentant d'une classe sociale.
 </t>
         </is>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Les_petits_livres_d%27or</t>
+          <t>Les_petits_livres_d'or</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>L'album jeunesse dans la guerre froide</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'étude de l'histoire, à travers le filtre littéraire, l'édition jeunesse est souvent mise à l'écart. Rien de plus erroné si l'on prend le cas de Les Petits Lives D'Or dans la société française des années 1950.
 </t>
